--- a/docs/assets/disciplinas/LOM3253.xlsx
+++ b/docs/assets/disciplinas/LOM3253.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,70 +70,55 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introdução às funções de variáveis complexas e suas aplicações. Apresentar equações diferenciais de interesse em engenharia física e desenvolver técnicas de soluções, verificando propriedades e métodos de resolução. Estudo de funções especiais em Engenharia Física.</t>
+    <t>5840726 - Cristina Bormio Nunes</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>5840726 - Cristina Bormio Nunes</t>
+    <t>Programa resumido:</t>
   </si>
   <si>
     <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
     <t>1341653 - Maria José Ramos Sandim</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>1643715 - Paulo Atsushi Suzuki</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Funções de uma variável complexa. Função delta. Equações diferenciais parciais da engenharia física: métodos de solução, resolução de problemas de valores de contorno, aplicações. Série de Fourier e Transformadas Integrais. Funções especiais.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Funções de uma variável complexa: séries infinitas, funções analíticas, condições de Cauchy Riemann, integrais de contorno, teorema de Cauchy, teorema dos resíduos, Função delta. Equação de Laplace, equação da difusão (do calor), equação de ondas (corda vibrante); Série de Fourier, Transformadas Integrais de Fourier e Laplace. Funções especiais: Polinômios de Legendre, Harmônicos Esféricos, Funções de Bessel.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas expositivas teóricas, aulas de exercícios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Duas provas escritas: conceitos P1 e P2. Conceito Final = (P1 + 2P2)/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>•ARFKEN, G. and WEBER, H. J. Mathematical Methods for Physicists.•BROWN, JAMES W. and CHURCHILL, RUEL V., Complex Variables and Applications, Mc Graw Hill Higher Education, 7a. ed.• BUTKOV, Eugene. Física Matemática.•BELLANDI FILHO,J., Funções Especiais, Ed. Papirus, 1985.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -500,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,143 +605,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="120" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
+      <c r="A16" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="60" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="120" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1">
-      <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3253.xlsx
+++ b/docs/assets/disciplinas/LOM3253.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>15/07/2016</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Introduction to complex variable functions and their applications. Present differential equations of interest in physical engineering and develop solution techniques, verifying properties and resolution methods. Study of special functions in Physical Engineering.</t>
+  </si>
+  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Functions of a complex variable. Delta function. Partial differential equations in physical engineering: solution methods, solving boundary value problems, applications. Fourier Series and Integral Transforms. Special functions.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>Functions of a complex variable: infinite series, analytical functions, Cauchy Riemann conditions, boundary integrals, Cauchy's theorem, residue theorem, Delta function. Laplace equation, diffusion equation (of heat), wave equation (vibrating string), Fourier series, Fourier and Laplace integral transforms. Special functions: Legendre Polynomials, Spherical Harmonics, Bessel Functions.</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
@@ -112,7 +121,7 @@
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Duas provas escritas: conceitos P1 e P2. Conceito Final = (P1 + 2P2)/3</t>
+    <t>Duas provas escritas: conceitos P1 e P2. Conceito Final = (P1 + P2)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
@@ -604,107 +613,125 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="120" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3253.xlsx
+++ b/docs/assets/disciplinas/LOM3253.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,34 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Introdução às funções de variáveis complexas e suas aplicações. Apresentar equações diferenciais de interesse em engenharia física e desenvolver técnicas de soluções, verificando propriedades e métodos de resolução. Estudo de funções especiais em Engenharia Física.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Introduction to complex variable functions and their applications. Present differential equations of interest in physical engineering and develop solution techniques, verifying properties and resolution methods. Study of special functions in Physical Engineering.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840726 - Cristina Bormio Nunes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Introduction to complex variable functions and their applications. Present differential equations of interest in physical engineering and develop solution techniques, verifying properties and resolution methods. Study of special functions in Physical Engineering.</t>
+    <t>6495737 - Durval Rodrigues Junior</t>
+  </si>
+  <si>
+    <t>1341653 - Maria José Ramos Sandim</t>
+  </si>
+  <si>
+    <t>1643715 - Paulo Atsushi Suzuki</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>6495737 - Durval Rodrigues Junior</t>
+    <t>Funções de uma variável complexa. Função delta. Equações diferenciais parciais da engenharia física: métodos de solução, resolução de problemas de valores de contorno, aplicações. Série de Fourier e Transformadas Integrais. Funções especiais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,7 +109,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1341653 - Maria José Ramos Sandim</t>
+    <t>Funções de uma variável complexa: séries infinitas, funções analíticas, condições de Cauchy Riemann, integrais de contorno, teorema de Cauchy, teorema dos resíduos, Função delta. Equação de Laplace, equação da difusão (do calor), equação de ondas (corda vibrante); Série de Fourier, Transformadas Integrais de Fourier e Laplace. Funções especiais: Polinômios de Legendre, Harmônicos Esféricos, Funções de Bessel.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -109,25 +124,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1643715 - Paulo Atsushi Suzuki</t>
+    <t>Aulas expositivas teóricas, aulas de exercícios.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas teóricas, aulas de exercícios.</t>
+    <t>Duas provas escritas: conceitos P1 e P2. Conceito Final = (P1 + P2)/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Duas provas escritas: conceitos P1 e P2. Conceito Final = (P1 + P2)/2</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>•ARFKEN, G. and WEBER, H. J. Mathematical Methods for Physicists.•BROWN, JAMES W. and CHURCHILL, RUEL V., Complex Variables and Applications, Mc Graw Hill Higher Education, 7a. ed.• BUTKOV, Eugene. Física Matemática.•BELLANDI FILHO,J., Funções Especiais, Ed. Papirus, 1985.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -494,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -620,118 +635,155 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="120" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:3">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="120" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="120" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1">
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
